--- a/code/LME/parser_beta/data/kitko_db.xlsx
+++ b/code/LME/parser_beta/data/kitko_db.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F249"/>
+  <dimension ref="A1:F251"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5394,11 +5394,49 @@
       <c r="A249" s="1" t="n">
         <v>247</v>
       </c>
-      <c r="B249" t="inlineStr"/>
-      <c r="C249" t="inlineStr"/>
-      <c r="D249" t="inlineStr"/>
-      <c r="E249" t="inlineStr"/>
-      <c r="F249" t="inlineStr"/>
+      <c r="B249" s="2" t="n">
+        <v>44923</v>
+      </c>
+      <c r="C249" t="n">
+        <v>1803.35</v>
+      </c>
+      <c r="D249" t="n">
+        <v>23.855</v>
+      </c>
+      <c r="E249" t="n">
+        <v>1017</v>
+      </c>
+      <c r="F249" t="n">
+        <v>1795</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" s="1" t="n">
+        <v>248</v>
+      </c>
+      <c r="B250" s="2" t="n">
+        <v>44924</v>
+      </c>
+      <c r="C250" t="n">
+        <v>1813.75</v>
+      </c>
+      <c r="D250" t="inlineStr"/>
+      <c r="E250" t="n">
+        <v>1031</v>
+      </c>
+      <c r="F250" t="n">
+        <v>1775</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" s="1" t="n">
+        <v>249</v>
+      </c>
+      <c r="B251" t="inlineStr"/>
+      <c r="C251" t="inlineStr"/>
+      <c r="D251" t="inlineStr"/>
+      <c r="E251" t="inlineStr"/>
+      <c r="F251" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/code/LME/parser_beta/data/kitko_db.xlsx
+++ b/code/LME/parser_beta/data/kitko_db.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F251"/>
+  <dimension ref="A1:F252"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5432,11 +5432,25 @@
       <c r="A251" s="1" t="n">
         <v>249</v>
       </c>
-      <c r="B251" t="inlineStr"/>
+      <c r="B251" s="2" t="n">
+        <v>44925</v>
+      </c>
       <c r="C251" t="inlineStr"/>
-      <c r="D251" t="inlineStr"/>
+      <c r="D251" t="n">
+        <v>23.945</v>
+      </c>
       <c r="E251" t="inlineStr"/>
       <c r="F251" t="inlineStr"/>
+    </row>
+    <row r="252">
+      <c r="A252" s="1" t="n">
+        <v>250</v>
+      </c>
+      <c r="B252" t="inlineStr"/>
+      <c r="C252" t="inlineStr"/>
+      <c r="D252" t="inlineStr"/>
+      <c r="E252" t="inlineStr"/>
+      <c r="F252" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/code/LME/parser_beta/data/kitko_db.xlsx
+++ b/code/LME/parser_beta/data/kitko_db.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,6 +484,26 @@
         <v>1795</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="n">
+        <v>44930</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1857.3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>24.29</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1080</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1736</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/code/LME/parser_beta/data/kitko_db.xlsx
+++ b/code/LME/parser_beta/data/kitko_db.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -504,6 +504,26 @@
         <v>1736</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="n">
+        <v>44931</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1834</v>
+      </c>
+      <c r="D4" t="n">
+        <v>23.41</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1062</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1783</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/code/LME/parser_beta/data/kitko_db.xlsx
+++ b/code/LME/parser_beta/data/kitko_db.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -524,6 +524,26 @@
         <v>1783</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2" t="n">
+        <v>44932</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1852.2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>23.455</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1073</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1784</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/code/LME/parser_beta/data/kitko_db.xlsx
+++ b/code/LME/parser_beta/data/kitko_db.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -544,6 +544,36 @@
         <v>1784</v>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2" t="n">
+        <v>44935</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1878.85</v>
+      </c>
+      <c r="D6" t="n">
+        <v>23.85</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1092</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1793</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/code/LME/parser_beta/data/kitko_db.xlsx
+++ b/code/LME/parser_beta/data/kitko_db.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -568,11 +568,31 @@
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
+      <c r="B7" s="2" t="n">
+        <v>44936</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1878.65</v>
+      </c>
+      <c r="D7" t="n">
+        <v>23.515</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1084</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1802</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
